--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066350.745195974</v>
+        <v>3065516.422780587</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613644</v>
+        <v>5736895.963613641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>1097084.844708275</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6263721.088899735</v>
+        <v>6272891.496662932</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>255.5902086070654</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.500400102640897</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.45337212097857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>54.03944817168475</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -904,7 +904,7 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>373.7142528831531</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>296.3262956000983</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>38.08943578439633</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>136.506552839569</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>349.9773539432185</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.44704049762495</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
         <v>224.990945096747</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>30.80285165232075</v>
+        <v>132.0123961107636</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967475</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
         <v>316.8402373905461</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>113.2692892302228</v>
       </c>
       <c r="E16" t="n">
-        <v>55.53008846461567</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1833,7 +1833,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T17" t="n">
         <v>190.4854774862718</v>
@@ -2004,25 +2004,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>38.77597185760948</v>
       </c>
       <c r="H19" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>162.6487322210757</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2241,22 +2241,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2304,10 +2304,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>65.03938666916355</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.7881545466551</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>33.12209635668076</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501637</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125509</v>
@@ -2535,13 +2535,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
         <v>192.989399898785</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106874</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227055</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>384.748275150713</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711152</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686922</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>84.70950290368869</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894047</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.257248996683</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554527</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729469</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567436</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>142.228682773162</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527162</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.2849015275286</v>
+        <v>57.11924731080165</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106874</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227055</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>384.748275150713</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711152</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>193.7301984309787</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894047</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554527</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729469</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997956001</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419725</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>140.9611316008303</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.5631279582261</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617563</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679658</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106874</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227055</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D32" t="n">
-        <v>384.748275150713</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711152</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G32" t="n">
-        <v>388.969985808939</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H32" t="n">
-        <v>154.5267325026291</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>66.5263163529376</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554527</v>
+        <v>157.9336309124597</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659279</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729469</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997956001</v>
+        <v>22.53114806288879</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419725</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U34" t="n">
-        <v>264.29915052218</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V34" t="n">
-        <v>4.837658765238534</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617563</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679658</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227055</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D35" t="n">
-        <v>384.748275150713</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711152</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G35" t="n">
-        <v>388.969985808939</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894047</v>
+        <v>23.43745675594743</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554527</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.8373968265207</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729469</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>142.228682773162</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997956001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.3114639424819</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759078</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>178.4454690171937</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227055</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D38" t="n">
-        <v>384.748275150713</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711152</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1283969414021</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894047</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>23.43745675594775</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554527</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X38" t="n">
-        <v>173.5470543578667</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729469</v>
+        <v>166.8607806269439</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567436</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.228682773162</v>
+        <v>86.69435160986811</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733576</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V40" t="n">
-        <v>42.32035672636775</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890572</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>23.43745675594743</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>31.99018014062471</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>86.69435160986799</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>218.191322929905</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V43" t="n">
-        <v>247.8474286207978</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>66.52631635293761</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W44" t="n">
-        <v>291.3512556275626</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>219.9101822705601</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.1752199258842</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>218.191322929905</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>235.2425700615383</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.6426643811656</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="C2" t="n">
-        <v>564.5584777348397</v>
+        <v>731.6907628710738</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>327.2268329641344</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>316.9270215214351</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>299.9370135155267</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,16 +4336,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1728.241065551728</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1378.403510888208</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1378.403510888208</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>977.7601130571609</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>576.823440005251</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
         <v>133.2608899736458</v>
@@ -4412,19 +4412,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>704.7239474634683</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
         <v>1738.409816796119</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.0036667135541</v>
+        <v>130.101825145742</v>
       </c>
       <c r="C4" t="n">
-        <v>356.0036667135541</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>356.0036667135541</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>356.0036667135541</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1431.305962742332</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1191.757223719034</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>908.9590762651578</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V4" t="n">
-        <v>635.0733312046798</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W4" t="n">
-        <v>356.0036667135541</v>
+        <v>780.8810922913383</v>
       </c>
       <c r="X4" t="n">
-        <v>356.0036667135541</v>
+        <v>542.5372301510217</v>
       </c>
       <c r="Y4" t="n">
-        <v>356.0036667135541</v>
+        <v>317.8015315397864</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>758.3483279138347</v>
+        <v>391.1589950301166</v>
       </c>
       <c r="C5" t="n">
-        <v>752.2641412675089</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D5" t="n">
-        <v>751.8406154009734</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E5" t="n">
         <v>374.3514710745562</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.212905409372</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X5" t="n">
-        <v>1168.569507578324</v>
+        <v>798.2764437061119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1168.569507578324</v>
+        <v>397.339770654202</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N6" t="n">
-        <v>751.4208778585605</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1268.263812524886</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1785.106747191211</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505.6874089569055</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>505.6874089569055</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>346.1927642798155</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>346.1927642798155</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>972.4567798420755</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>693.3871153509499</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>693.3871153509499</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>693.3871153509499</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.723472461974</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C8" t="n">
-        <v>1372.639285815648</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D8" t="n">
-        <v>968.1753559087084</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E8" t="n">
-        <v>553.8351404256051</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.416726816583</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.416726816583</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1384.904248086059</v>
+        <v>1430.257116687702</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>971.6042912536486</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>800.5109188153651</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
         <v>800.5109188153651</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1528.288183768002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1528.288183768002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1245.490036314127</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>971.6042912536486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>971.6042912536486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>971.6042912536486</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>971.6042912536486</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5071,22 +5071,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499.0721081913506</v>
+        <v>701.5888062483709</v>
       </c>
       <c r="C13" t="n">
-        <v>357.7756465877519</v>
+        <v>701.5888062483709</v>
       </c>
       <c r="D13" t="n">
-        <v>228.0779127453467</v>
+        <v>571.8910724059658</v>
       </c>
       <c r="E13" t="n">
-        <v>228.0779127453467</v>
+        <v>571.8910724059658</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>437.056857351242</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,10 +5202,10 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
         <v>927.8555407749236</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751518</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187109</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="X13" t="n">
-        <v>656.9749037507102</v>
+        <v>859.4916018077305</v>
       </c>
       <c r="Y13" t="n">
-        <v>656.9749037507102</v>
+        <v>859.4916018077305</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5311,19 +5311,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>255.1421648262333</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>916.2303367455215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>916.2303367455215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.296454581765</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C16" t="n">
-        <v>536.296454581765</v>
+        <v>338.77102545249</v>
       </c>
       <c r="D16" t="n">
-        <v>406.5987207393599</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E16" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5442,7 +5442,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
         <v>927.8555407749236</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1591.046577105541</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U16" t="n">
-        <v>1591.046577105541</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V16" t="n">
-        <v>1346.957742879748</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W16" t="n">
-        <v>1097.684989223307</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X16" t="n">
-        <v>889.1380379176751</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y16" t="n">
-        <v>694.1992501411246</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>3084.569701873628</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>3084.569701873628</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.9991721489656</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C19" t="n">
-        <v>832.7027105453669</v>
+        <v>338.77102545249</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029618</v>
+        <v>338.77102545249</v>
       </c>
       <c r="E19" t="n">
-        <v>571.891072405966</v>
+        <v>338.77102545249</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>338.77102545249</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114704</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H19" t="n">
         <v>179.7928327516118</v>
@@ -5679,7 +5679,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
         <v>927.8555407749236</v>
@@ -5700,25 +5700,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>1535.387706790508</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U19" t="n">
-        <v>1535.387706790508</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V19" t="n">
-        <v>1535.387706790508</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W19" t="n">
-        <v>1535.387706790508</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X19" t="n">
-        <v>1326.840755484876</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y19" t="n">
-        <v>1131.901967708325</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.6216265872488</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C22" t="n">
-        <v>481.6216265872488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>481.6216265872488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5916,7 +5916,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
         <v>927.8555407749236</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1393.521147976265</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>1149.432313750472</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W22" t="n">
-        <v>900.1595600940312</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X22" t="n">
-        <v>834.463209923159</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y22" t="n">
-        <v>639.5244221466085</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6022,19 +6022,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>1210.13812587521</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N24" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3650.212110053631</v>
+        <v>126.700360677169</v>
       </c>
       <c r="C25" t="n">
-        <v>3508.915648450032</v>
+        <v>126.700360677169</v>
       </c>
       <c r="D25" t="n">
-        <v>3508.915648450032</v>
+        <v>126.700360677169</v>
       </c>
       <c r="E25" t="n">
-        <v>3377.801744153036</v>
+        <v>126.700360677169</v>
       </c>
       <c r="F25" t="n">
-        <v>3242.967529098312</v>
+        <v>126.700360677169</v>
       </c>
       <c r="G25" t="n">
-        <v>3105.514048858541</v>
+        <v>126.700360677169</v>
       </c>
       <c r="H25" t="n">
-        <v>2985.703504498682</v>
+        <v>126.700360677169</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253557</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>4450.114219755819</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>4240.362391567206</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>3987.361154948015</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>3987.361154948015</v>
+        <v>937.3616489751518</v>
       </c>
       <c r="W25" t="n">
-        <v>3987.361154948015</v>
+        <v>688.0888953187109</v>
       </c>
       <c r="X25" t="n">
-        <v>3987.361154948015</v>
+        <v>479.5419440130791</v>
       </c>
       <c r="Y25" t="n">
-        <v>3792.422367171464</v>
+        <v>284.6031562365286</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796475</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.576913652328</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.942292287972</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.431385347451</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>642.230281843722</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G26" t="n">
-        <v>249.3313062791371</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.3959975995299</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C28" t="n">
-        <v>537.1319337038293</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D28" t="n">
-        <v>393.4665975693223</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E28" t="n">
-        <v>393.4665975693223</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984189</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232424</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058885</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489674</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445803</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>1444.524956074863</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.714701627061</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732157</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950139</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1506.751167372633</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1506.751167372633</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1239.78232846134</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V28" t="n">
-        <v>981.7258919434445</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W28" t="n">
-        <v>981.7258919434445</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X28" t="n">
-        <v>981.7258919434445</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="Y28" t="n">
-        <v>864.2663954509914</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2228.872195796475</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.576913652328</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1445.942292287972</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1047.431385347451</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252507</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606658</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4095.124759159358</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3761.116513038422</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3393.185520716173</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>3008.371431427709</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2623.264066918382</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.1060055285119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>338.8419416328113</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>338.8419416328113</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984189</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232424</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058885</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489674</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445803</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>1444.524956074863</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.714701627061</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732157</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.313626950139</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.751167372633</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1506.751167372633</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1239.78232846134</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.39734704636</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.39734704636</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X31" t="n">
-        <v>874.8827934486258</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.9764033799734</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2228.872195796475</v>
+        <v>2415.117146620408</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.576913652328</v>
+        <v>2024.146019270203</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.942292287972</v>
+        <v>1638.835552699789</v>
       </c>
       <c r="E32" t="n">
-        <v>1047.431385347451</v>
+        <v>1243.648800553211</v>
       </c>
       <c r="F32" t="n">
-        <v>642.230281843722</v>
+        <v>841.7718518434237</v>
       </c>
       <c r="G32" t="n">
-        <v>249.3313062791371</v>
+        <v>452.1970310727812</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>160.4419970370244</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4502.655964417544</v>
       </c>
       <c r="U32" t="n">
-        <v>4095.124759159358</v>
+        <v>4264.74893601358</v>
       </c>
       <c r="V32" t="n">
-        <v>3761.116513038422</v>
+        <v>3934.064844686586</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3569.45800715828</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3187.968072663757</v>
       </c>
       <c r="Y32" t="n">
-        <v>2623.264066918382</v>
+        <v>2806.184862948372</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.6044629382005</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="C34" t="n">
-        <v>476.3403990424999</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="D34" t="n">
-        <v>476.3403990424999</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="E34" t="n">
-        <v>476.3403990424999</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="F34" t="n">
-        <v>327.5385816956741</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="G34" t="n">
-        <v>327.5385816956741</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="H34" t="n">
-        <v>193.7604350437137</v>
+        <v>116.0024331076822</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>122.8405523984189</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9071854232424</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L34" t="n">
-        <v>568.3185910058885</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M34" t="n">
-        <v>873.0969527489674</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N34" t="n">
-        <v>1169.450040445803</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.524956074863</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.714701627061</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.757036732157</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R34" t="n">
-        <v>1677.313626950139</v>
+        <v>1706.701814652425</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.751167372633</v>
+        <v>1539.46350986886</v>
       </c>
       <c r="T34" t="n">
-        <v>1506.751167372633</v>
+        <v>1319.068234182088</v>
       </c>
       <c r="U34" t="n">
-        <v>1239.78232846134</v>
+        <v>1055.423550064737</v>
       </c>
       <c r="V34" t="n">
-        <v>1234.895804456048</v>
+        <v>800.6912683407841</v>
       </c>
       <c r="W34" t="n">
-        <v>1234.895804456048</v>
+        <v>540.7750671861836</v>
       </c>
       <c r="X34" t="n">
-        <v>1012.381250858314</v>
+        <v>321.5846683823922</v>
       </c>
       <c r="Y34" t="n">
-        <v>803.474860789662</v>
+        <v>116.0024331076822</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178004</v>
+        <v>2371.593046017388</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033857</v>
+        <v>1980.621918667183</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.4563266695</v>
+        <v>1595.311452096769</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.94541972898</v>
+        <v>1200.124699950191</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252507</v>
+        <v>798.2477512404034</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606658</v>
+        <v>408.6729304697608</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309667</v>
+        <v>116.917896434004</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4336.355942357265</v>
+        <v>4459.131863814524</v>
       </c>
       <c r="U35" t="n">
-        <v>4095.124759159358</v>
+        <v>4221.22483541056</v>
       </c>
       <c r="V35" t="n">
-        <v>3761.116513038422</v>
+        <v>3890.540744083565</v>
       </c>
       <c r="W35" t="n">
-        <v>3393.185520716173</v>
+        <v>3525.933906555259</v>
       </c>
       <c r="X35" t="n">
-        <v>3008.371431427709</v>
+        <v>3144.443972060737</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.77810129991</v>
+        <v>2762.660762345352</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>212.2732461996272</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>212.2732461996272</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1085.931338311245</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
         <v>1789.888428857139</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.772388193679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>916.5083242979783</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>772.8429881634713</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>627.7614815743736</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>478.9596642275478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232424</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058885</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489674</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732157</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S37" t="n">
-        <v>1689.876770123589</v>
+        <v>1605.582764856935</v>
       </c>
       <c r="T37" t="n">
-        <v>1466.157339642874</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="U37" t="n">
-        <v>1466.157339642874</v>
+        <v>1121.542805052812</v>
       </c>
       <c r="V37" t="n">
-        <v>1466.157339642874</v>
+        <v>866.8105233288593</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.157339642874</v>
+        <v>686.5625748266434</v>
       </c>
       <c r="X37" t="n">
-        <v>1243.642786045141</v>
+        <v>467.372176022852</v>
       </c>
       <c r="Y37" t="n">
-        <v>1243.642786045141</v>
+        <v>261.789940748142</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178004</v>
+        <v>2347.918847274007</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033857</v>
+        <v>1956.947719923802</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.4563266695</v>
+        <v>1571.637253353387</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.94541972898</v>
+        <v>1176.450501206809</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252507</v>
+        <v>774.5735524970222</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606658</v>
+        <v>384.9987317263796</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4638.510685787758</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4435.457665071142</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4197.550636667178</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3866.866545340184</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3502.259707811878</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.885465809237</v>
+        <v>3120.769773317355</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.77810129991</v>
+        <v>2738.986563601971</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1085.931338311245</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
         <v>1789.888428857139</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>837.4775041886274</v>
+        <v>180.8137498218027</v>
       </c>
       <c r="C40" t="n">
-        <v>682.2134402929269</v>
+        <v>180.8137498218027</v>
       </c>
       <c r="D40" t="n">
-        <v>538.5481041584198</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>393.4665975693223</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>244.6647802224965</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7332,52 +7332,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>122.8405523984189</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K40" t="n">
-        <v>292.9071854232424</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L40" t="n">
-        <v>568.3185910058885</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M40" t="n">
-        <v>873.0969527489674</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N40" t="n">
-        <v>1169.450040445803</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.524956074863</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P40" t="n">
-        <v>1665.714701627061</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q40" t="n">
-        <v>1746.757036732157</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R40" t="n">
-        <v>1746.757036732157</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S40" t="n">
-        <v>1746.757036732157</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="T40" t="n">
-        <v>1746.757036732157</v>
+        <v>1552.425793953727</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.757036732157</v>
+        <v>1288.781109836377</v>
       </c>
       <c r="V40" t="n">
-        <v>1704.009201655018</v>
+        <v>1034.048828112424</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.768845706475</v>
+        <v>774.1326269578233</v>
       </c>
       <c r="X40" t="n">
-        <v>1218.254292108741</v>
+        <v>554.9422281540319</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.347902040089</v>
+        <v>349.3599928793219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2371.593046017388</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1980.621918667183</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1595.311452096769</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1200.124699950191</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>798.2477512404034</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>408.6729304697608</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>116.917896434004</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4494.590496051882</v>
+        <v>4459.131863814524</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4221.22483541056</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3890.540744083565</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3525.933906555259</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3144.443972060737</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2762.660762345352</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>1789.888428857139</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N42" t="n">
-        <v>1789.888428857139</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O42" t="n">
-        <v>1789.888428857139</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P42" t="n">
         <v>1789.888428857139</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3617.822573608469</v>
+        <v>180.8137498218026</v>
       </c>
       <c r="C43" t="n">
-        <v>3617.822573608469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3458.327928931379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S43" t="n">
-        <v>4390.520398086449</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="T43" t="n">
-        <v>4150.971659063151</v>
+        <v>1552.425793953727</v>
       </c>
       <c r="U43" t="n">
-        <v>3868.173511609275</v>
+        <v>1288.781109836377</v>
       </c>
       <c r="V43" t="n">
-        <v>3617.822573608469</v>
+        <v>1034.048828112424</v>
       </c>
       <c r="W43" t="n">
-        <v>3617.822573608469</v>
+        <v>774.1326269578233</v>
       </c>
       <c r="X43" t="n">
-        <v>3617.822573608469</v>
+        <v>554.9422281540319</v>
       </c>
       <c r="Y43" t="n">
-        <v>3617.822573608469</v>
+        <v>349.3599928793218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2415.117146620408</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2024.146019270203</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1638.835552699789</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1243.648800553211</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>841.7718518434237</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>452.1970310727812</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>160.4419970370244</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.18488453114</v>
+        <v>4546.057272661766</v>
       </c>
       <c r="T44" t="n">
-        <v>4662.18488453114</v>
+        <v>4343.00425194515</v>
       </c>
       <c r="U44" t="n">
-        <v>4405.12439279065</v>
+        <v>4105.097223541185</v>
       </c>
       <c r="V44" t="n">
-        <v>4055.286838127131</v>
+        <v>3774.413132214191</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3409.806294685885</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3028.316360191362</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2806.184862948372</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1584.839892213121</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>245.1836067923811</v>
       </c>
       <c r="C46" t="n">
         <v>93.2436976906228</v>
@@ -7806,52 +7806,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958333</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180713</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981318</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386251</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.878513932875</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O46" t="n">
-        <v>1351.43912425935</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508962</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.642594311473</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S46" t="n">
-        <v>1406.889855859717</v>
+        <v>1605.582764856935</v>
       </c>
       <c r="T46" t="n">
-        <v>1167.341116836419</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="U46" t="n">
-        <v>884.5429693825431</v>
+        <v>1147.568731532245</v>
       </c>
       <c r="V46" t="n">
-        <v>610.6572243220651</v>
+        <v>892.8364498082922</v>
       </c>
       <c r="W46" t="n">
-        <v>331.5875598309394</v>
+        <v>632.9202486536917</v>
       </c>
       <c r="X46" t="n">
-        <v>93.2436976906228</v>
+        <v>413.7298498499003</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>413.7298498499003</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363632</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8060,13 +8060,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4592375477437</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,7 +8075,7 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>298.736180582244</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>66.8161563599358</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>333.0441487333853</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8543,19 +8543,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491207</v>
       </c>
       <c r="P9" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>361.079260496652</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>219.3595879721007</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>529.7246381472006</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>583.7666955189151</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>551.1310269936541</v>
       </c>
       <c r="N24" t="n">
-        <v>71.42007065981008</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
@@ -10202,7 +10202,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>424.7983178153489</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10211,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>176.3463909916616</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>204.4161811978466</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11147,7 +11147,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>643.1706503868311</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11156,7 +11156,7 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>175.6586301402547</v>
+        <v>74.44908568181182</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>15.13146727375828</v>
       </c>
       <c r="E16" t="n">
-        <v>74.2726767894101</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>97.30297357976454</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>45.00557768565128</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>106.7614006308816</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>141.4220951234119</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.53561305711094</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>52.56154735369837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4188940377134</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997956001</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617563</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.53242464043724</v>
+        <v>165.3690943143213</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4188940377135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>142.228682773162</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733576</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>114.5147405518859</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890572</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>137.601664438773</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894047</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>43.08885959699012</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D34" t="n">
-        <v>142.228682773162</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232066</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.68950867066835</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>250.6382133874776</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>43.08885959699018</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>207.418894037713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.22065673355713</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419725</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S37" t="n">
-        <v>112.5453710392498</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527162</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>78.87157012586067</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>66.52631635293758</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>91.52887899473241</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>207.4188940377131</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>52.243417917291</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997956001</v>
+        <v>96.22065673355712</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419725</v>
+        <v>65.45806243819436</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>213.1555154263484</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>43.08885959699019</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T41" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>63.72615840087272</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>140.3397782772038</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>146.6159584605521</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>129.149451939438</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>96.22065673355715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.45806243819439</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>23.29945898907548</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>88.57144222862053</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>158.0551953476707</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>140.3397782772038</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>146.6159584605521</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>129.149451939438</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>96.22065673355715</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.45806243819439</v>
       </c>
       <c r="S46" t="n">
-        <v>55.35263051300467</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.7656672146388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>203.526412921963</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>550357.6373184763</v>
+        <v>550357.6373184762</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>550357.6373184761</v>
+        <v>550357.6373184762</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>550357.6373184761</v>
+        <v>550357.6373184763</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>550357.6373184762</v>
+        <v>550357.6373184763</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>550357.6373184762</v>
+        <v>550357.6373184763</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>530208.9958199734</v>
+        <v>507374.7930467432</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>530208.9958199736</v>
+        <v>507374.7930467432</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>530208.9958199736</v>
+        <v>535004.1784023517</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>530208.9958199734</v>
+        <v>535004.1784023517</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>530208.9958199735</v>
+        <v>535004.1784023517</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507374.7930467431</v>
+        <v>535004.1784023517</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>507374.7930467432</v>
+        <v>535004.1784023517</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>602664.8542200909</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="C2" t="n">
         <v>602664.8542200906</v>
       </c>
       <c r="D2" t="n">
-        <v>602664.8542200904</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="E2" t="n">
+        <v>584042.9209415641</v>
+      </c>
+      <c r="F2" t="n">
         <v>584042.9209415639</v>
       </c>
-      <c r="F2" t="n">
-        <v>584042.9209415641</v>
-      </c>
       <c r="G2" t="n">
-        <v>584042.9209415639</v>
+        <v>584042.920941564</v>
       </c>
       <c r="H2" t="n">
-        <v>584042.9209415638</v>
+        <v>584042.9209415643</v>
       </c>
       <c r="I2" t="n">
-        <v>584042.9209415641</v>
+        <v>584042.9209415643</v>
       </c>
       <c r="J2" t="n">
-        <v>561452.0198674849</v>
+        <v>535850.0349399234</v>
       </c>
       <c r="K2" t="n">
-        <v>561452.0198674849</v>
+        <v>535850.0349399237</v>
       </c>
       <c r="L2" t="n">
-        <v>561452.0198674848</v>
+        <v>566828.4367022731</v>
       </c>
       <c r="M2" t="n">
-        <v>561452.0198674852</v>
+        <v>566828.436702273</v>
       </c>
       <c r="N2" t="n">
-        <v>561452.0198674848</v>
+        <v>566828.436702273</v>
       </c>
       <c r="O2" t="n">
-        <v>535850.0349399236</v>
+        <v>566828.4367022729</v>
       </c>
       <c r="P2" t="n">
-        <v>535850.0349399233</v>
+        <v>566828.4367022729</v>
       </c>
     </row>
     <row r="3">
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716206</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15169.54296252798</v>
       </c>
       <c r="M3" t="n">
         <v>160358.4505006827</v>
@@ -26426,40 +26426,40 @@
         <v>174432.0962319951</v>
       </c>
       <c r="E4" t="n">
-        <v>60002.6489608522</v>
+        <v>60002.64896085223</v>
       </c>
       <c r="F4" t="n">
-        <v>60002.6489608522</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="G4" t="n">
+        <v>60002.64896085222</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60002.64896085222</v>
+      </c>
+      <c r="I4" t="n">
         <v>60002.64896085221</v>
       </c>
-      <c r="H4" t="n">
-        <v>60002.6489608522</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60002.6489608522</v>
-      </c>
       <c r="J4" t="n">
-        <v>46028.89720112261</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>46028.89720112261</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
-        <v>46028.89720112261</v>
+        <v>49354.51550912175</v>
       </c>
       <c r="M4" t="n">
-        <v>46028.89720112261</v>
+        <v>49354.51550912175</v>
       </c>
       <c r="N4" t="n">
-        <v>46028.89720112261</v>
+        <v>49354.51550912176</v>
       </c>
       <c r="O4" t="n">
-        <v>30192.61954398331</v>
+        <v>49354.51550912172</v>
       </c>
       <c r="P4" t="n">
-        <v>30192.61954398331</v>
+        <v>49354.51550912172</v>
       </c>
     </row>
     <row r="5">
@@ -26493,25 +26493,25 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334106</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334106</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334106</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334106</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>72459.32062901928</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187908.1830164843</v>
+        <v>187908.1830164839</v>
       </c>
       <c r="C6" t="n">
         <v>362863.6929095979</v>
       </c>
       <c r="D6" t="n">
-        <v>362863.6929095978</v>
+        <v>362863.692909598</v>
       </c>
       <c r="E6" t="n">
-        <v>234966.1989233333</v>
+        <v>234915.869373932</v>
       </c>
       <c r="F6" t="n">
-        <v>450695.1152038471</v>
+        <v>450644.7856544454</v>
       </c>
       <c r="G6" t="n">
-        <v>450695.1152038469</v>
+        <v>450644.7856544455</v>
       </c>
       <c r="H6" t="n">
-        <v>450695.1152038468</v>
+        <v>450644.7856544458</v>
       </c>
       <c r="I6" t="n">
-        <v>450695.1152038471</v>
+        <v>450644.7856544458</v>
       </c>
       <c r="J6" t="n">
-        <v>294108.8526514006</v>
+        <v>298016.8237525227</v>
       </c>
       <c r="K6" t="n">
-        <v>443240.4658230213</v>
+        <v>434611.6245584179</v>
       </c>
       <c r="L6" t="n">
-        <v>443240.4658230211</v>
+        <v>429748.2024191235</v>
       </c>
       <c r="M6" t="n">
-        <v>282882.0153223388</v>
+        <v>284559.2948809686</v>
       </c>
       <c r="N6" t="n">
-        <v>443240.4658230211</v>
+        <v>444917.7453816513</v>
       </c>
       <c r="O6" t="n">
-        <v>434792.2051510669</v>
+        <v>444917.7453816513</v>
       </c>
       <c r="P6" t="n">
-        <v>434792.2051510667</v>
+        <v>444917.7453816513</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I2" t="n">
         <v>29.49894172633797</v>
       </c>
       <c r="J2" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M2" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N2" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
     </row>
     <row r="3">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.6710154571571</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6710154571571</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.0507926590307</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>251.9894867204441</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>81.92906659292208</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27548,13 +27548,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4884022672041</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,7 +27624,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>36.48256044511919</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>100.3106682526387</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>124.8953788461183</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>269.6124150282756</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>46.94995237817233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>142.0808099412639</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="23">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.6710154571571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="C38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="D38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="E38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="F38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="G38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="H38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="I38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="T38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="U38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="V38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="W38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="X38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="C40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="D40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="F40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="G40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="H40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="I40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="J40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="K40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="L40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="M40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="N40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="O40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="P40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="R40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="S40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="T40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="U40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="V40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="W40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="X40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.6710154571571</v>
+        <v>18.96192870315998</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.96192870315995</v>
       </c>
     </row>
   </sheetData>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>474.8949538093263</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>203.2507825193992</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>10.70163254908676</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>303.327781496652</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5338051874853</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>473.6101143363516</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
         <v>650.1321781990958</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>493.5667432552367</v>
       </c>
       <c r="N24" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615762</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K28" t="n">
-        <v>171.784477802852</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M28" t="n">
-        <v>307.856931053615</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N28" t="n">
-        <v>299.346553229127</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062605</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060238</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615762</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>171.784477802852</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M31" t="n">
-        <v>307.856931053615</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N31" t="n">
-        <v>299.346553229127</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060238</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615762</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K34" t="n">
-        <v>171.784477802852</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M34" t="n">
-        <v>307.856931053615</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N34" t="n">
-        <v>299.346553229127</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062605</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060238</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>120.2318671808126</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615762</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K37" t="n">
-        <v>171.784477802852</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N37" t="n">
-        <v>299.346553229127</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062605</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060238</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>151.2227878040966</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615762</v>
+        <v>33.18672608216051</v>
       </c>
       <c r="K40" t="n">
-        <v>171.784477802852</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N40" t="n">
-        <v>299.346553229127</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062605</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060238</v>
+        <v>85.15185779660527</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37867,7 +37867,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>585.6063666484137</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.22479737900053</v>
+        <v>33.18672608216048</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1134623456949</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L43" t="n">
-        <v>262.5223235152127</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M43" t="n">
-        <v>292.1859155964578</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N43" t="n">
-        <v>283.67553777197</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O43" t="n">
-        <v>262.1824346732062</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P43" t="n">
-        <v>207.7529699491034</v>
+        <v>226.7148986522633</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.18992909344529</v>
+        <v>85.15185779660524</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>33.18672608216048</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>226.7148986522633</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>85.15185779660524</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
